--- a/output/df_matrix.xlsx
+++ b/output/df_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>demand1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>bat1</t>
+  </si>
+  <si>
+    <t>bat2</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +434,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,8 +457,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,6 +524,32 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_matrix.xlsx
+++ b/output/df_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>demand1</t>
   </si>
@@ -25,13 +25,7 @@
     <t>pv1</t>
   </si>
   <si>
-    <t>pv2</t>
-  </si>
-  <si>
     <t>bat1</t>
-  </si>
-  <si>
-    <t>bat2</t>
   </si>
 </sst>
 </file>
@@ -389,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,14 +402,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +419,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,14 +436,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,14 +453,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,58 +468,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_matrix.xlsx
+++ b/output/df_matrix.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>demand1</t>
   </si>
   <si>
+    <t>demand2</t>
+  </si>
+  <si>
     <t>net1</t>
+  </si>
+  <si>
+    <t>net2</t>
   </si>
   <si>
     <t>pv1</t>
@@ -383,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +408,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +431,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -436,8 +454,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,8 +477,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,6 +498,58 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_matrix.xlsx
+++ b/output/df_matrix.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>demand1</t>
   </si>
   <si>
-    <t>demand2</t>
-  </si>
-  <si>
     <t>net1</t>
-  </si>
-  <si>
-    <t>net2</t>
   </si>
   <si>
     <t>pv1</t>
@@ -389,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,14 +402,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +419,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,14 +436,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,14 +453,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,58 +468,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>
